--- a/sample.xlsx
+++ b/sample.xlsx
@@ -7,7 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="NadoSheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="MySheet" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="NewSheet" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="YourSheet" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Copied Sheet" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -423,4 +427,93 @@
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <tabColor rgb="003CB371"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/sample.xlsx
+++ b/sample.xlsx
@@ -8,10 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="MySheet" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="NewSheet" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="YourSheet" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Copied Sheet" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -417,44 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <tabColor rgb="003CB371"/>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,52 +424,128 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>번호</t>
         </is>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>영어</t>
         </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>수학</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>88</v>
+      </c>
+      <c r="C2" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>45</v>
+      </c>
+      <c r="C3" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>42</v>
+      </c>
+      <c r="C4" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>80</v>
+      </c>
+      <c r="C5" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>77</v>
+      </c>
+      <c r="C6" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>100</v>
+      </c>
+      <c r="C7" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>43</v>
+      </c>
+      <c r="C8" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>33</v>
+      </c>
+      <c r="C9" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>90</v>
+      </c>
+      <c r="C10" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>48</v>
+      </c>
+      <c r="C11" t="n">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
